--- a/SharedFolder/AP KWE/2023/KWE Intel/Output/KWE_Intel_StatusReport_15022023.xlsx
+++ b/SharedFolder/AP KWE/2023/KWE Intel/Output/KWE_Intel_StatusReport_15022023.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="501">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="500">
   <x:si>
     <x:t>HAWB NO</x:t>
   </x:si>
@@ -221,7 +221,7 @@
     <x:t>Invoice number is NA For HAWB Number: 122015432722</x:t>
   </x:si>
   <x:si>
-    <x:t>15/02/2023 07:20:21</x:t>
+    <x:t>15/02/2023 14:50:31</x:t>
   </x:si>
   <x:si>
     <x:t>180-36373886</x:t>
@@ -249,9 +249,6 @@
     <x:t>Invoice number is NA For HAWB Number: 122015740641</x:t>
   </x:si>
   <x:si>
-    <x:t>15/02/2023 07:20:22</x:t>
-  </x:si>
-  <x:si>
     <x:t>180-36375522</x:t>
   </x:si>
   <x:si>
@@ -267,6 +264,9 @@
     <x:t>Invoice number is NA For HAWB Number: 122015740700</x:t>
   </x:si>
   <x:si>
+    <x:t>15/02/2023 14:50:32</x:t>
+  </x:si>
+  <x:si>
     <x:t>180-36333953</x:t>
   </x:si>
   <x:si>
@@ -340,9 +340,6 @@
   </x:si>
   <x:si>
     <x:t>Invoice number is NA For HAWB Number: 122015741186</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15/02/2023 07:20:23</x:t>
   </x:si>
   <x:si>
     <x:t>010030329300</x:t>
@@ -450,6 +447,9 @@
     <x:t>2022/07/30 04:00</x:t>
   </x:si>
   <x:si>
+    <x:t>15/02/2023 14:50:33</x:t>
+  </x:si>
+  <x:si>
     <x:t>180-36402100</x:t>
   </x:si>
   <x:si>
@@ -599,9 +599,6 @@
     <x:t>Invoice Number is not matched with Pdf invoice number. For Invoice: 5800M104830800</x:t>
   </x:si>
   <x:si>
-    <x:t>15/02/2023 07:20:24</x:t>
-  </x:si>
-  <x:si>
     <x:t>122016071074</x:t>
   </x:si>
   <x:si>
@@ -729,6 +726,9 @@
   </x:si>
   <x:si>
     <x:t>Invoice number is NA For HAWB Number: 122015741573</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/02/2023 14:50:34</x:t>
   </x:si>
   <x:si>
     <x:t>122015741643</x:t>
@@ -866,9 +866,6 @@
     <x:t>2022/08/19 07:00</x:t>
   </x:si>
   <x:si>
-    <x:t>15/02/2023 07:20:25</x:t>
-  </x:si>
-  <x:si>
     <x:t>122016053460</x:t>
   </x:si>
   <x:si>
@@ -992,6 +989,9 @@
     <x:t>Invoice number is NA For HAWB Number: 122016053633</x:t>
   </x:si>
   <x:si>
+    <x:t>15/02/2023 14:50:35</x:t>
+  </x:si>
+  <x:si>
     <x:t>122015834006</x:t>
   </x:si>
   <x:si>
@@ -1047,9 +1047,6 @@
   </x:si>
   <x:si>
     <x:t>Invoice Number is not matched with Pdf invoice number. For Invoice: 5800M104834800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15/02/2023 07:20:26</x:t>
   </x:si>
   <x:si>
     <x:t>122016053751</x:t>
@@ -1199,9 +1196,6 @@
     <x:t>Invoice Number is not matched with Pdf invoice number. For Invoice: 5800M104834200</x:t>
   </x:si>
   <x:si>
-    <x:t>15/02/2023 07:20:27</x:t>
-  </x:si>
-  <x:si>
     <x:t>122016053946</x:t>
   </x:si>
   <x:si>
@@ -1221,6 +1215,9 @@
   </x:si>
   <x:si>
     <x:t>Invoice Number is not matched with Pdf invoice number. For Invoice: 5800M104832400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/02/2023 14:50:36</x:t>
   </x:si>
   <x:si>
     <x:t>122016053950</x:t>
@@ -1370,9 +1367,6 @@
     <x:t>Invoice number is NA For HAWB Number: 122016054020</x:t>
   </x:si>
   <x:si>
-    <x:t>15/02/2023 07:20:28</x:t>
-  </x:si>
-  <x:si>
     <x:t>Origin Charge (S$)</x:t>
   </x:si>
   <x:si>
@@ -1458,6 +1452,9 @@
     <x:t>Invoice Number is not matched with Pdf invoice number. For Invoice: 58001142229500</x:t>
   </x:si>
   <x:si>
+    <x:t>15/02/2023 14:50:37</x:t>
+  </x:si>
+  <x:si>
     <x:t>Delivery with shipment 122016053386</x:t>
   </x:si>
   <x:si>
@@ -1479,9 +1476,6 @@
     <x:t>Invoice Number is not matched with Pdf invoice number. For Invoice: 58001142927900</x:t>
   </x:si>
   <x:si>
-    <x:t>15/02/2023 07:20:29</x:t>
-  </x:si>
-  <x:si>
     <x:t>580011175081</x:t>
   </x:si>
   <x:si>
@@ -1576,6 +1570,9 @@
   </x:si>
   <x:si>
     <x:t>Invoice Number is not matched with Pdf invoice number. For Invoice: 5800M104832200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/02/2023 14:50:38</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2323,7 +2320,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="AT3" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:46">
@@ -2331,13 +2328,13 @@
         <x:v>122015740700</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="D4" s="0" t="s">
         <x:v>78</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>79</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>49</x:v>
@@ -2427,7 +2424,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="AJ4" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="AK4" s="0" t="s">
         <x:v>62</x:v>
@@ -2445,10 +2442,10 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="AS4" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AT4" s="0" t="s">
         <x:v>81</x:v>
-      </x:c>
-      <x:c r="AT4" s="0" t="s">
-        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:46">
@@ -2570,7 +2567,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="AT5" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:46">
@@ -2692,7 +2689,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="AT6" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:46">
@@ -2817,7 +2814,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="AT7" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:46">
@@ -2942,7 +2939,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="AT8" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:46">
@@ -3067,7 +3064,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="AT9" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:46">
@@ -3078,10 +3075,10 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
         <x:v>108</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>109</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>49</x:v>
@@ -3171,7 +3168,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="AJ10" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="AK10" s="0" t="s">
         <x:v>62</x:v>
@@ -3189,24 +3186,24 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="AS10" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="AT10" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:46">
       <x:c r="A11" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="C11" s="0" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="D11" s="0" t="s">
         <x:v>114</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>115</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>49</x:v>
@@ -3233,7 +3230,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="M11" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="N11" s="1">
         <x:v>44600</x:v>
@@ -3251,10 +3248,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="S11" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T11" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T11" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U11" s="0" t="s">
         <x:v>72</x:v>
@@ -3269,10 +3266,10 @@
         <x:v>2040</x:v>
       </x:c>
       <x:c r="Z11" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="AA11" s="0" t="s">
         <x:v>119</x:v>
-      </x:c>
-      <x:c r="AA11" s="0" t="s">
-        <x:v>120</x:v>
       </x:c>
       <x:c r="AB11" s="0" t="n">
         <x:v>225.85</x:v>
@@ -3293,16 +3290,16 @@
         <x:v>366.27</x:v>
       </x:c>
       <x:c r="AI11" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ11" s="0" t="n">
         <x:v>7010034581</x:v>
       </x:c>
       <x:c r="AK11" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL11" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AM11" s="0" t="n">
         <x:v>0</x:v>
@@ -3314,30 +3311,30 @@
         <x:v>44778</x:v>
       </x:c>
       <x:c r="AP11" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="AR11" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AS11" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="AT11" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:46">
       <x:c r="A12" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
+      <x:c r="C12" s="0" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="s">
+      <x:c r="D12" s="0" t="s">
         <x:v>127</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>128</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
         <x:v>49</x:v>
@@ -3382,10 +3379,10 @@
         <x:v>2167</x:v>
       </x:c>
       <x:c r="S12" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T12" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T12" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U12" s="0" t="s">
         <x:v>72</x:v>
@@ -3400,10 +3397,10 @@
         <x:v>294712</x:v>
       </x:c>
       <x:c r="Z12" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="AA12" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="AB12" s="0" t="n">
         <x:v>22095.22</x:v>
@@ -3424,19 +3421,19 @@
         <x:v>22727.23</x:v>
       </x:c>
       <x:c r="AI12" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ12" s="0" t="n">
         <x:v>7010035221</x:v>
       </x:c>
       <x:c r="AK12" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL12" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="AM12" s="0" t="s">
         <x:v>130</x:v>
-      </x:c>
-      <x:c r="AM12" s="0" t="s">
-        <x:v>131</x:v>
       </x:c>
       <x:c r="AN12" s="0" t="s">
         <x:v>72</x:v>
@@ -3445,16 +3442,16 @@
         <x:v>44786</x:v>
       </x:c>
       <x:c r="AP12" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="AR12" s="0" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="AR12" s="0" t="s">
+      <x:c r="AS12" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="AS12" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="AT12" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:46">
@@ -3462,13 +3459,13 @@
         <x:v>122016031513</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="s">
+      <x:c r="D13" s="0" t="s">
         <x:v>136</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>137</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>49</x:v>
@@ -3513,10 +3510,10 @@
         <x:v>6.5</x:v>
       </x:c>
       <x:c r="S13" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T13" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T13" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="V13" s="0" t="n">
         <x:v>220</x:v>
@@ -3528,10 +3525,10 @@
         <x:v>754</x:v>
       </x:c>
       <x:c r="Z13" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="AA13" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="AB13" s="0" t="n">
         <x:v>22.58</x:v>
@@ -3552,37 +3549,37 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="AI13" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="AJ13" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="AK13" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="AL13" s="0" t="s">
         <x:v>121</x:v>
-      </x:c>
-      <x:c r="AJ13" s="0" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="AK13" s="0" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="AL13" s="0" t="s">
-        <x:v>122</x:v>
       </x:c>
       <x:c r="AM13" s="0" t="n">
         <x:v>-2146826246</x:v>
       </x:c>
       <x:c r="AN13" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="AO13" s="1">
         <x:v>44774</x:v>
       </x:c>
       <x:c r="AP13" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="AR13" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="AS13" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="AT13" s="0" t="s">
         <x:v>141</x:v>
-      </x:c>
-      <x:c r="AR13" s="0" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="AS13" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="AT13" s="0" t="s">
-        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:46">
@@ -3623,7 +3620,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="M14" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="N14" s="1">
         <x:v>44770</x:v>
@@ -3641,10 +3638,10 @@
         <x:v>2.5</x:v>
       </x:c>
       <x:c r="S14" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T14" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T14" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U14" s="0" t="s">
         <x:v>72</x:v>
@@ -3662,7 +3659,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="AA14" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="AB14" s="0" t="n">
         <x:v>90.9</x:v>
@@ -3686,16 +3683,16 @@
         <x:v>180.18</x:v>
       </x:c>
       <x:c r="AI14" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ14" s="0" t="n">
         <x:v>7010035286</x:v>
       </x:c>
       <x:c r="AK14" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL14" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AM14" s="0" t="n">
         <x:v>0</x:v>
@@ -3707,7 +3704,7 @@
         <x:v>44774</x:v>
       </x:c>
       <x:c r="AP14" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="AR14" s="0" t="s">
         <x:v>65</x:v>
@@ -3716,7 +3713,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="AT14" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:46">
@@ -3757,7 +3754,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="M15" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="N15" s="1">
         <x:v>44770</x:v>
@@ -3775,10 +3772,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="S15" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T15" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T15" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U15" s="0" t="s">
         <x:v>72</x:v>
@@ -3796,7 +3793,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="AA15" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="AB15" s="0" t="n">
         <x:v>118.8</x:v>
@@ -3820,16 +3817,16 @@
         <x:v>208.08</x:v>
       </x:c>
       <x:c r="AI15" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ15" s="0" t="n">
         <x:v>7010035250</x:v>
       </x:c>
       <x:c r="AK15" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL15" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AM15" s="0" t="n">
         <x:v>0</x:v>
@@ -3841,7 +3838,7 @@
         <x:v>44774</x:v>
       </x:c>
       <x:c r="AP15" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="AR15" s="0" t="s">
         <x:v>65</x:v>
@@ -3850,7 +3847,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="AT15" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:46">
@@ -3891,7 +3888,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="M16" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="N16" s="1">
         <x:v>44771</x:v>
@@ -3909,10 +3906,10 @@
         <x:v>2.5</x:v>
       </x:c>
       <x:c r="S16" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T16" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T16" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U16" s="0" t="s">
         <x:v>72</x:v>
@@ -3930,7 +3927,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="AA16" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="AB16" s="0" t="n">
         <x:v>90.9</x:v>
@@ -3954,16 +3951,16 @@
         <x:v>180.18</x:v>
       </x:c>
       <x:c r="AI16" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ16" s="0" t="n">
         <x:v>7010035294</x:v>
       </x:c>
       <x:c r="AK16" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL16" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AM16" s="0" t="s">
         <x:v>157</x:v>
@@ -3978,13 +3975,13 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="AR16" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="AS16" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="AS16" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="AT16" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:46">
@@ -4025,7 +4022,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="M17" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="N17" s="1">
         <x:v>44771</x:v>
@@ -4043,10 +4040,10 @@
         <x:v>5.5</x:v>
       </x:c>
       <x:c r="S17" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T17" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T17" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U17" s="0" t="s">
         <x:v>72</x:v>
@@ -4064,7 +4061,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="AA17" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="AB17" s="0" t="n">
         <x:v>94.5</x:v>
@@ -4085,16 +4082,16 @@
         <x:v>234.92</x:v>
       </x:c>
       <x:c r="AI17" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ17" s="0" t="n">
         <x:v>7010035296</x:v>
       </x:c>
       <x:c r="AK17" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL17" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AM17" s="0" t="s">
         <x:v>157</x:v>
@@ -4109,13 +4106,13 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="AR17" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="AS17" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="AS17" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="AT17" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:46">
@@ -4156,7 +4153,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="M18" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="N18" s="1">
         <x:v>44771</x:v>
@@ -4174,10 +4171,10 @@
         <x:v>2.5</x:v>
       </x:c>
       <x:c r="S18" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T18" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T18" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U18" s="0" t="s">
         <x:v>72</x:v>
@@ -4195,7 +4192,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="AA18" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="AB18" s="0" t="n">
         <x:v>90.9</x:v>
@@ -4216,16 +4213,16 @@
         <x:v>231.32</x:v>
       </x:c>
       <x:c r="AI18" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ18" s="0" t="n">
         <x:v>7010035287</x:v>
       </x:c>
       <x:c r="AK18" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL18" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AM18" s="0" t="n">
         <x:v>0</x:v>
@@ -4240,13 +4237,13 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="AR18" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="AS18" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="AS18" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="AT18" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:46">
@@ -4287,7 +4284,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="M19" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="N19" s="1">
         <x:v>44771</x:v>
@@ -4305,10 +4302,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="S19" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T19" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T19" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U19" s="0" t="s">
         <x:v>72</x:v>
@@ -4326,7 +4323,7 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="AA19" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="AB19" s="0" t="n">
         <x:v>95.1</x:v>
@@ -4350,16 +4347,16 @@
         <x:v>184.38</x:v>
       </x:c>
       <x:c r="AI19" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ19" s="0" t="n">
         <x:v>7010035307</x:v>
       </x:c>
       <x:c r="AK19" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL19" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AM19" s="0" t="n">
         <x:v>0</x:v>
@@ -4374,13 +4371,13 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="AR19" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="AS19" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="AS19" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="AT19" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:46">
@@ -4421,7 +4418,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="M20" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="N20" s="1">
         <x:v>44771</x:v>
@@ -4439,10 +4436,10 @@
         <x:v>5.5</x:v>
       </x:c>
       <x:c r="S20" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T20" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T20" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U20" s="0" t="s">
         <x:v>72</x:v>
@@ -4460,7 +4457,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="AA20" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="AB20" s="0" t="n">
         <x:v>94.5</x:v>
@@ -4484,16 +4481,16 @@
         <x:v>183.78</x:v>
       </x:c>
       <x:c r="AI20" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ20" s="0" t="n">
         <x:v>7010035333</x:v>
       </x:c>
       <x:c r="AK20" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL20" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AM20" s="0" t="n">
         <x:v>0</x:v>
@@ -4508,13 +4505,13 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="AR20" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="AS20" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="AS20" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="AT20" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:46">
@@ -4573,10 +4570,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="S21" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T21" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T21" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U21" s="0" t="s">
         <x:v>72</x:v>
@@ -4594,7 +4591,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="AA21" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="AB21" s="0" t="n">
         <x:v>178.2</x:v>
@@ -4615,16 +4612,16 @@
         <x:v>318.62</x:v>
       </x:c>
       <x:c r="AI21" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ21" s="0" t="n">
         <x:v>7010029982</x:v>
       </x:c>
       <x:c r="AK21" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL21" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AM21" s="0" t="n">
         <x:v>0</x:v>
@@ -4645,7 +4642,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="AT21" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:46">
@@ -4653,7 +4650,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
         <x:v>178</x:v>
@@ -4686,7 +4683,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="M22" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="N22" s="1">
         <x:v>44775</x:v>
@@ -4704,10 +4701,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="S22" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T22" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T22" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U22" s="0" t="s">
         <x:v>72</x:v>
@@ -4725,7 +4722,7 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="AA22" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="AB22" s="0" t="n">
         <x:v>240.9</x:v>
@@ -4749,16 +4746,16 @@
         <x:v>330.18</x:v>
       </x:c>
       <x:c r="AI22" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ22" s="0" t="s">
         <x:v>182</x:v>
       </x:c>
       <x:c r="AK22" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL22" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AM22" s="0" t="s">
         <x:v>157</x:v>
@@ -4770,7 +4767,7 @@
         <x:v>44778</x:v>
       </x:c>
       <x:c r="AP22" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="AR22" s="0" t="s">
         <x:v>65</x:v>
@@ -4779,7 +4776,7 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="AT22" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:46">
@@ -4838,10 +4835,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="S23" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T23" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T23" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="V23" s="0" t="n">
         <x:v>220</x:v>
@@ -4856,7 +4853,7 @@
         <x:v>188</x:v>
       </x:c>
       <x:c r="AA23" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="AB23" s="0" t="n">
         <x:v>14.73</x:v>
@@ -4877,22 +4874,22 @@
         <x:v>155.15</x:v>
       </x:c>
       <x:c r="AI23" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ23" s="0" t="n">
         <x:v>7010035243</x:v>
       </x:c>
       <x:c r="AK23" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL23" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AM23" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AN23" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="AO23" s="1">
         <x:v>44779</x:v>
@@ -4907,21 +4904,21 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="AT23" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:46">
       <x:c r="A24" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
         <x:v>192</x:v>
       </x:c>
-      <x:c r="B24" s="0" t="s">
+      <x:c r="C24" s="0" t="s">
         <x:v>193</x:v>
       </x:c>
-      <x:c r="C24" s="0" t="s">
+      <x:c r="D24" s="0" t="s">
         <x:v>194</x:v>
-      </x:c>
-      <x:c r="D24" s="0" t="s">
-        <x:v>195</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>49</x:v>
@@ -4966,10 +4963,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="S24" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T24" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T24" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U24" s="0" t="s">
         <x:v>72</x:v>
@@ -4984,10 +4981,10 @@
         <x:v>1088</x:v>
       </x:c>
       <x:c r="Z24" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="AA24" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="AB24" s="0" t="n">
         <x:v>120.45</x:v>
@@ -5008,16 +5005,16 @@
         <x:v>260.87</x:v>
       </x:c>
       <x:c r="AI24" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ24" s="0" t="n">
         <x:v>7010035422</x:v>
       </x:c>
       <x:c r="AK24" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL24" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AM24" s="0" t="s">
         <x:v>157</x:v>
@@ -5035,24 +5032,24 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="AS24" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AT24" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:46">
       <x:c r="A25" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
         <x:v>198</x:v>
       </x:c>
-      <x:c r="B25" s="0" t="s">
+      <x:c r="C25" s="0" t="s">
         <x:v>199</x:v>
       </x:c>
-      <x:c r="C25" s="0" t="s">
+      <x:c r="D25" s="0" t="s">
         <x:v>200</x:v>
-      </x:c>
-      <x:c r="D25" s="0" t="s">
-        <x:v>201</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>49</x:v>
@@ -5097,10 +5094,10 @@
         <x:v>2.5</x:v>
       </x:c>
       <x:c r="S25" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T25" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T25" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U25" s="0" t="s">
         <x:v>72</x:v>
@@ -5115,10 +5112,10 @@
         <x:v>340</x:v>
       </x:c>
       <x:c r="Z25" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="AA25" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="AB25" s="0" t="n">
         <x:v>91.41</x:v>
@@ -5139,16 +5136,16 @@
         <x:v>231.83</x:v>
       </x:c>
       <x:c r="AI25" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ25" s="0" t="n">
         <x:v>7010035088</x:v>
       </x:c>
       <x:c r="AK25" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL25" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AM25" s="0" t="n">
         <x:v>0</x:v>
@@ -5160,30 +5157,30 @@
         <x:v>44779</x:v>
       </x:c>
       <x:c r="AP25" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="AR25" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="AS25" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="AS25" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="AT25" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:46">
       <x:c r="A26" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
         <x:v>204</x:v>
       </x:c>
-      <x:c r="B26" s="0" t="s">
+      <x:c r="C26" s="0" t="s">
         <x:v>205</x:v>
       </x:c>
-      <x:c r="C26" s="0" t="s">
+      <x:c r="D26" s="0" t="s">
         <x:v>206</x:v>
-      </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>207</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>49</x:v>
@@ -5210,7 +5207,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="M26" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="N26" s="1">
         <x:v>44778</x:v>
@@ -5228,10 +5225,10 @@
         <x:v>14.5</x:v>
       </x:c>
       <x:c r="S26" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T26" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T26" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U26" s="0" t="s">
         <x:v>72</x:v>
@@ -5246,10 +5243,10 @@
         <x:v>1972</x:v>
       </x:c>
       <x:c r="Z26" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="AA26" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="AB26" s="0" t="n">
         <x:v>218.32</x:v>
@@ -5267,22 +5264,22 @@
         <x:v>0.319595</x:v>
       </x:c>
       <x:c r="AG26" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="AH26" s="0" t="n">
         <x:v>307.6</x:v>
       </x:c>
       <x:c r="AI26" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="AJ26" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="AK26" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="AL26" s="0" t="s">
         <x:v>121</x:v>
-      </x:c>
-      <x:c r="AJ26" s="0" t="s">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="AK26" s="0" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="AL26" s="0" t="s">
-        <x:v>122</x:v>
       </x:c>
       <x:c r="AM26" s="0" t="n">
         <x:v>-2146826246</x:v>
@@ -5294,30 +5291,30 @@
         <x:v>44787</x:v>
       </x:c>
       <x:c r="AP26" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="AR26" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="AS26" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="AS26" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="AT26" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:46">
       <x:c r="A27" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
         <x:v>212</x:v>
       </x:c>
-      <x:c r="B27" s="0" t="s">
+      <x:c r="C27" s="0" t="s">
         <x:v>213</x:v>
       </x:c>
-      <x:c r="C27" s="0" t="s">
+      <x:c r="D27" s="0" t="s">
         <x:v>214</x:v>
-      </x:c>
-      <x:c r="D27" s="0" t="s">
-        <x:v>215</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
         <x:v>49</x:v>
@@ -5407,48 +5404,48 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="AJ27" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="AK27" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
       <x:c r="AL27" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AM27" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
       <x:c r="AN27" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="AO27" s="1">
         <x:v>44782</x:v>
       </x:c>
       <x:c r="AP27" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="AR27" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AS27" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="AT27" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:46">
       <x:c r="A28" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
         <x:v>218</x:v>
       </x:c>
-      <x:c r="B28" s="0" t="s">
+      <x:c r="C28" s="0" t="s">
         <x:v>219</x:v>
       </x:c>
-      <x:c r="C28" s="0" t="s">
+      <x:c r="D28" s="0" t="s">
         <x:v>220</x:v>
-      </x:c>
-      <x:c r="D28" s="0" t="s">
-        <x:v>221</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
         <x:v>49</x:v>
@@ -5493,10 +5490,10 @@
         <x:v>2.5</x:v>
       </x:c>
       <x:c r="S28" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T28" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T28" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U28" s="0" t="s">
         <x:v>72</x:v>
@@ -5511,10 +5508,10 @@
         <x:v>340</x:v>
       </x:c>
       <x:c r="Z28" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="AA28" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="AB28" s="0" t="n">
         <x:v>91.41</x:v>
@@ -5535,16 +5532,16 @@
         <x:v>231.83</x:v>
       </x:c>
       <x:c r="AI28" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ28" s="0" t="n">
         <x:v>7010035548</x:v>
       </x:c>
       <x:c r="AK28" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL28" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AM28" s="0" t="s">
         <x:v>157</x:v>
@@ -5556,30 +5553,30 @@
         <x:v>44787</x:v>
       </x:c>
       <x:c r="AP28" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="AR28" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="AS28" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="AS28" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="AT28" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:46">
       <x:c r="A29" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
         <x:v>223</x:v>
       </x:c>
-      <x:c r="B29" s="0" t="s">
-        <x:v>219</x:v>
-      </x:c>
-      <x:c r="C29" s="0" t="s">
+      <x:c r="D29" s="0" t="s">
         <x:v>224</x:v>
-      </x:c>
-      <x:c r="D29" s="0" t="s">
-        <x:v>225</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
         <x:v>49</x:v>
@@ -5624,10 +5621,10 @@
         <x:v>17.5</x:v>
       </x:c>
       <x:c r="S29" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T29" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T29" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U29" s="0" t="s">
         <x:v>72</x:v>
@@ -5642,10 +5639,10 @@
         <x:v>2380</x:v>
       </x:c>
       <x:c r="Z29" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="AA29" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="AB29" s="0" t="n">
         <x:v>263.49</x:v>
@@ -5666,16 +5663,16 @@
         <x:v>403.91</x:v>
       </x:c>
       <x:c r="AI29" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="AJ29" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="AK29" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="AL29" s="0" t="s">
         <x:v>121</x:v>
-      </x:c>
-      <x:c r="AJ29" s="0" t="s">
-        <x:v>227</x:v>
-      </x:c>
-      <x:c r="AK29" s="0" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="AL29" s="0" t="s">
-        <x:v>122</x:v>
       </x:c>
       <x:c r="AM29" s="0" t="n">
         <x:v>-2146826246</x:v>
@@ -5687,30 +5684,30 @@
         <x:v>44783</x:v>
       </x:c>
       <x:c r="AP29" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="AR29" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="AS29" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="AS29" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="AT29" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:46">
       <x:c r="A30" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
         <x:v>228</x:v>
       </x:c>
-      <x:c r="B30" s="0" t="s">
-        <x:v>219</x:v>
-      </x:c>
-      <x:c r="C30" s="0" t="s">
+      <x:c r="D30" s="0" t="s">
         <x:v>229</x:v>
-      </x:c>
-      <x:c r="D30" s="0" t="s">
-        <x:v>230</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
         <x:v>49</x:v>
@@ -5803,13 +5800,13 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="AJ30" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="AK30" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
       <x:c r="AL30" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AM30" s="0" t="s">
         <x:v>63</x:v>
@@ -5821,16 +5818,16 @@
         <x:v>44790</x:v>
       </x:c>
       <x:c r="AP30" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="AR30" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AS30" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="AT30" s="0" t="s">
         <x:v>232</x:v>
-      </x:c>
-      <x:c r="AT30" s="0" t="s">
-        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:46">
@@ -5889,10 +5886,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="S31" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T31" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T31" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U31" s="0" t="s">
         <x:v>72</x:v>
@@ -5910,7 +5907,7 @@
         <x:v>237</x:v>
       </x:c>
       <x:c r="AA31" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="AB31" s="0" t="n">
         <x:v>94.93</x:v>
@@ -5931,16 +5928,16 @@
         <x:v>235.35</x:v>
       </x:c>
       <x:c r="AI31" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ31" s="0" t="s">
         <x:v>238</x:v>
       </x:c>
       <x:c r="AK31" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL31" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AM31" s="0" t="n">
         <x:v>-2146826246</x:v>
@@ -5955,13 +5952,13 @@
         <x:v>239</x:v>
       </x:c>
       <x:c r="AR31" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="AS31" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="AS31" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="AT31" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:46">
@@ -6002,7 +5999,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="M32" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="N32" s="1">
         <x:v>44784</x:v>
@@ -6020,10 +6017,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="S32" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T32" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T32" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U32" s="0" t="s">
         <x:v>72</x:v>
@@ -6041,7 +6038,7 @@
         <x:v>244</x:v>
       </x:c>
       <x:c r="AA32" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="AB32" s="0" t="n">
         <x:v>93.52</x:v>
@@ -6062,16 +6059,16 @@
         <x:v>233.94</x:v>
       </x:c>
       <x:c r="AI32" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ32" s="0" t="n">
         <x:v>7010035666</x:v>
       </x:c>
       <x:c r="AK32" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL32" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AM32" s="0" t="n">
         <x:v>0</x:v>
@@ -6092,7 +6089,7 @@
         <x:v>246</x:v>
       </x:c>
       <x:c r="AT32" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:46">
@@ -6133,7 +6130,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="M33" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="N33" s="1">
         <x:v>44786</x:v>
@@ -6151,10 +6148,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="S33" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T33" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T33" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U33" s="0" t="s">
         <x:v>72</x:v>
@@ -6193,16 +6190,16 @@
         <x:v>290.32</x:v>
       </x:c>
       <x:c r="AI33" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ33" s="0" t="s">
         <x:v>253</x:v>
       </x:c>
       <x:c r="AK33" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL33" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AM33" s="0" t="s">
         <x:v>254</x:v>
@@ -6223,7 +6220,7 @@
         <x:v>256</x:v>
       </x:c>
       <x:c r="AT33" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:46">
@@ -6282,10 +6279,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="S34" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T34" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T34" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U34" s="0" t="s">
         <x:v>72</x:v>
@@ -6324,16 +6321,16 @@
         <x:v>469.51</x:v>
       </x:c>
       <x:c r="AI34" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ34" s="0" t="s">
         <x:v>262</x:v>
       </x:c>
       <x:c r="AK34" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL34" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AM34" s="0" t="s">
         <x:v>254</x:v>
@@ -6354,7 +6351,7 @@
         <x:v>264</x:v>
       </x:c>
       <x:c r="AT34" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:46">
@@ -6413,10 +6410,10 @@
         <x:v>5.5</x:v>
       </x:c>
       <x:c r="S35" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T35" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T35" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U35" s="0" t="s">
         <x:v>72</x:v>
@@ -6458,16 +6455,16 @@
         <x:v>184.44</x:v>
       </x:c>
       <x:c r="AI35" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ35" s="0" t="n">
         <x:v>7010035835</x:v>
       </x:c>
       <x:c r="AK35" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL35" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AM35" s="0" t="s">
         <x:v>157</x:v>
@@ -6482,27 +6479,27 @@
         <x:v>271</x:v>
       </x:c>
       <x:c r="AR35" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="AS35" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="AS35" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="AT35" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:46">
       <x:c r="A36" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>266</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
         <x:v>274</x:v>
-      </x:c>
-      <x:c r="D36" s="0" t="s">
-        <x:v>275</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
         <x:v>49</x:v>
@@ -6547,10 +6544,10 @@
         <x:v>10.5</x:v>
       </x:c>
       <x:c r="S36" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T36" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T36" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U36" s="0" t="s">
         <x:v>72</x:v>
@@ -6565,7 +6562,7 @@
         <x:v>1428</x:v>
       </x:c>
       <x:c r="Z36" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="AA36" s="0" t="s">
         <x:v>252</x:v>
@@ -6589,16 +6586,16 @@
         <x:v>297.78</x:v>
       </x:c>
       <x:c r="AI36" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ36" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="AK36" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL36" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AM36" s="0" t="s">
         <x:v>254</x:v>
@@ -6616,24 +6613,24 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="AS36" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="AT36" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:46">
       <x:c r="A37" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
         <x:v>279</x:v>
       </x:c>
-      <x:c r="B37" s="0" t="s">
+      <x:c r="C37" s="0" t="s">
         <x:v>280</x:v>
       </x:c>
-      <x:c r="C37" s="0" t="s">
+      <x:c r="D37" s="0" t="s">
         <x:v>281</x:v>
-      </x:c>
-      <x:c r="D37" s="0" t="s">
-        <x:v>282</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
         <x:v>49</x:v>
@@ -6678,10 +6675,10 @@
         <x:v>2.5</x:v>
       </x:c>
       <x:c r="S37" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T37" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T37" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="V37" s="0" t="n">
         <x:v>220</x:v>
@@ -6693,7 +6690,7 @@
         <x:v>340</x:v>
       </x:c>
       <x:c r="Z37" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="AA37" s="0" t="s">
         <x:v>252</x:v>
@@ -6714,57 +6711,57 @@
         <x:v>0.321235</x:v>
       </x:c>
       <x:c r="AG37" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="AH37" s="0" t="n">
         <x:v>98.72</x:v>
       </x:c>
       <x:c r="AI37" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ37" s="0" t="n">
         <x:v>7010035243</x:v>
       </x:c>
       <x:c r="AK37" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL37" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AM37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AN37" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="AO37" s="1">
         <x:v>44795</x:v>
       </x:c>
       <x:c r="AP37" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="AR37" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AS37" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="AT37" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:46">
       <x:c r="A38" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
         <x:v>287</x:v>
       </x:c>
-      <x:c r="B38" s="0" t="s">
+      <x:c r="C38" s="0" t="s">
         <x:v>288</x:v>
       </x:c>
-      <x:c r="C38" s="0" t="s">
+      <x:c r="D38" s="0" t="s">
         <x:v>289</x:v>
-      </x:c>
-      <x:c r="D38" s="0" t="s">
-        <x:v>290</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
         <x:v>49</x:v>
@@ -6791,7 +6788,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="M38" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="N38" s="1">
         <x:v>44791</x:v>
@@ -6809,10 +6806,10 @@
         <x:v>1.5</x:v>
       </x:c>
       <x:c r="S38" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T38" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T38" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U38" s="0" t="s">
         <x:v>72</x:v>
@@ -6827,7 +6824,7 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="Z38" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="AA38" s="0" t="s">
         <x:v>252</x:v>
@@ -6848,22 +6845,22 @@
         <x:v>0.321235</x:v>
       </x:c>
       <x:c r="AG38" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="AH38" s="0" t="n">
         <x:v>178.86</x:v>
       </x:c>
       <x:c r="AI38" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ38" s="0" t="n">
         <x:v>7010035840</x:v>
       </x:c>
       <x:c r="AK38" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL38" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AM38" s="0" t="n">
         <x:v>0</x:v>
@@ -6875,30 +6872,30 @@
         <x:v>44795</x:v>
       </x:c>
       <x:c r="AP38" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="AR38" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AS38" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="AT38" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:46">
       <x:c r="A39" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
         <x:v>293</x:v>
       </x:c>
-      <x:c r="B39" s="0" t="s">
+      <x:c r="C39" s="0" t="s">
         <x:v>294</x:v>
       </x:c>
-      <x:c r="C39" s="0" t="s">
+      <x:c r="D39" s="0" t="s">
         <x:v>295</x:v>
-      </x:c>
-      <x:c r="D39" s="0" t="s">
-        <x:v>296</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
         <x:v>49</x:v>
@@ -6943,10 +6940,10 @@
         <x:v>18.5</x:v>
       </x:c>
       <x:c r="S39" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T39" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T39" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U39" s="0" t="s">
         <x:v>72</x:v>
@@ -6961,7 +6958,7 @@
         <x:v>2516</x:v>
       </x:c>
       <x:c r="Z39" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="AA39" s="0" t="s">
         <x:v>252</x:v>
@@ -6982,22 +6979,22 @@
         <x:v>0.321235</x:v>
       </x:c>
       <x:c r="AG39" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="AH39" s="0" t="n">
         <x:v>365.85</x:v>
       </x:c>
       <x:c r="AI39" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="AJ39" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="AK39" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="AL39" s="0" t="s">
         <x:v>121</x:v>
-      </x:c>
-      <x:c r="AJ39" s="0" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="AK39" s="0" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="AL39" s="0" t="s">
-        <x:v>122</x:v>
       </x:c>
       <x:c r="AM39" s="0" t="n">
         <x:v>-2146826246</x:v>
@@ -7009,30 +7006,30 @@
         <x:v>44795</x:v>
       </x:c>
       <x:c r="AP39" s="0" t="s">
-        <x:v>299</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="AR39" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AS39" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="AT39" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:46">
       <x:c r="A40" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
         <x:v>301</x:v>
       </x:c>
-      <x:c r="B40" s="0" t="s">
-        <x:v>294</x:v>
-      </x:c>
-      <x:c r="C40" s="0" t="s">
+      <x:c r="D40" s="0" t="s">
         <x:v>302</x:v>
-      </x:c>
-      <x:c r="D40" s="0" t="s">
-        <x:v>303</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
         <x:v>49</x:v>
@@ -7077,10 +7074,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="S40" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T40" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T40" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U40" s="0" t="s">
         <x:v>72</x:v>
@@ -7095,7 +7092,7 @@
         <x:v>2040</x:v>
       </x:c>
       <x:c r="Z40" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="AA40" s="0" t="s">
         <x:v>252</x:v>
@@ -7116,22 +7113,22 @@
         <x:v>0.321235</x:v>
       </x:c>
       <x:c r="AG40" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="AH40" s="0" t="n">
         <x:v>313.58</x:v>
       </x:c>
       <x:c r="AI40" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ40" s="0" t="n">
         <x:v>7010035349</x:v>
       </x:c>
       <x:c r="AK40" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL40" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AM40" s="0" t="n">
         <x:v>0</x:v>
@@ -7143,30 +7140,30 @@
         <x:v>44795</x:v>
       </x:c>
       <x:c r="AP40" s="0" t="s">
-        <x:v>299</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="AR40" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AS40" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="AT40" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:46">
       <x:c r="A41" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
         <x:v>306</x:v>
       </x:c>
-      <x:c r="B41" s="0" t="s">
-        <x:v>294</x:v>
-      </x:c>
-      <x:c r="C41" s="0" t="s">
+      <x:c r="D41" s="0" t="s">
         <x:v>307</x:v>
-      </x:c>
-      <x:c r="D41" s="0" t="s">
-        <x:v>308</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
         <x:v>49</x:v>
@@ -7259,13 +7256,13 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="AJ41" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="AK41" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
       <x:c r="AL41" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AM41" s="0" t="s">
         <x:v>63</x:v>
@@ -7277,16 +7274,16 @@
         <x:v>44795</x:v>
       </x:c>
       <x:c r="AP41" s="0" t="s">
-        <x:v>299</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="AR41" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AS41" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="AT41" s="0" t="s">
         <x:v>310</x:v>
-      </x:c>
-      <x:c r="AT41" s="0" t="s">
-        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:46">
@@ -7345,10 +7342,10 @@
         <x:v>2.5</x:v>
       </x:c>
       <x:c r="S42" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T42" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T42" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="V42" s="0" t="n">
         <x:v>220</x:v>
@@ -7387,22 +7384,22 @@
         <x:v>98.72</x:v>
       </x:c>
       <x:c r="AI42" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ42" s="0" t="n">
         <x:v>7010034285</x:v>
       </x:c>
       <x:c r="AK42" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL42" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AM42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AN42" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="AO42" s="1">
         <x:v>44797</x:v>
@@ -7411,13 +7408,13 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="AR42" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="AS42" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="AS42" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="AT42" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:46">
@@ -7476,10 +7473,10 @@
         <x:v>1.5</x:v>
       </x:c>
       <x:c r="S43" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T43" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T43" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U43" s="0" t="s">
         <x:v>72</x:v>
@@ -7518,16 +7515,16 @@
         <x:v>230.26</x:v>
       </x:c>
       <x:c r="AI43" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ43" s="0" t="n">
         <x:v>7010035974</x:v>
       </x:c>
       <x:c r="AK43" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL43" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AM43" s="0" t="n">
         <x:v>0</x:v>
@@ -7548,7 +7545,7 @@
         <x:v>324</x:v>
       </x:c>
       <x:c r="AT43" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:46">
@@ -7607,10 +7604,10 @@
         <x:v>2.5</x:v>
       </x:c>
       <x:c r="S44" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T44" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T44" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U44" s="0" t="s">
         <x:v>72</x:v>
@@ -7646,22 +7643,22 @@
         <x:v>0.321235</x:v>
       </x:c>
       <x:c r="AG44" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="AH44" s="0" t="n">
         <x:v>180.25</x:v>
       </x:c>
       <x:c r="AI44" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ44" s="0" t="n">
         <x:v>7010035250</x:v>
       </x:c>
       <x:c r="AK44" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL44" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AM44" s="0" t="n">
         <x:v>0</x:v>
@@ -7682,21 +7679,21 @@
         <x:v>329</x:v>
       </x:c>
       <x:c r="AT44" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:46">
       <x:c r="A45" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>319</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
         <x:v>332</x:v>
-      </x:c>
-      <x:c r="D45" s="0" t="s">
-        <x:v>333</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
         <x:v>49</x:v>
@@ -7741,10 +7738,10 @@
         <x:v>5.5</x:v>
       </x:c>
       <x:c r="S45" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T45" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T45" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U45" s="0" t="s">
         <x:v>72</x:v>
@@ -7759,7 +7756,7 @@
         <x:v>748</x:v>
       </x:c>
       <x:c r="Z45" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="AA45" s="0" t="s">
         <x:v>252</x:v>
@@ -7783,16 +7780,16 @@
         <x:v>235.84</x:v>
       </x:c>
       <x:c r="AI45" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ45" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="AK45" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL45" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AM45" s="0" t="s">
         <x:v>157</x:v>
@@ -7810,24 +7807,24 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="AS45" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AT45" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:46">
       <x:c r="A46" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>312</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
         <x:v>338</x:v>
-      </x:c>
-      <x:c r="D46" s="0" t="s">
-        <x:v>339</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
         <x:v>49</x:v>
@@ -7872,10 +7869,10 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="S46" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T46" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T46" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="V46" s="0" t="n">
         <x:v>220</x:v>
@@ -7887,7 +7884,7 @@
         <x:v>31144</x:v>
       </x:c>
       <x:c r="Z46" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="AA46" s="0" t="s">
         <x:v>252</x:v>
@@ -7911,22 +7908,22 @@
         <x:v>977.1</x:v>
       </x:c>
       <x:c r="AI46" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="AJ46" s="0" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="AK46" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="AL46" s="0" t="s">
         <x:v>121</x:v>
-      </x:c>
-      <x:c r="AJ46" s="0" t="s">
-        <x:v>341</x:v>
-      </x:c>
-      <x:c r="AK46" s="0" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="AL46" s="0" t="s">
-        <x:v>122</x:v>
       </x:c>
       <x:c r="AM46" s="0" t="n">
         <x:v>-2146826246</x:v>
       </x:c>
       <x:c r="AN46" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="AO46" s="1">
         <x:v>44797</x:v>
@@ -7935,27 +7932,27 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="AR46" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="AS46" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="AS46" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="AT46" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:46">
       <x:c r="A47" s="0" t="s">
+        <x:v>341</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
         <x:v>342</x:v>
       </x:c>
-      <x:c r="B47" s="0" t="s">
+      <x:c r="C47" s="0" t="s">
         <x:v>343</x:v>
       </x:c>
-      <x:c r="C47" s="0" t="s">
+      <x:c r="D47" s="0" t="s">
         <x:v>344</x:v>
-      </x:c>
-      <x:c r="D47" s="0" t="s">
-        <x:v>345</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
         <x:v>49</x:v>
@@ -8048,13 +8045,13 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="AJ47" s="0" t="s">
-        <x:v>346</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="AK47" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
       <x:c r="AL47" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AM47" s="0" t="s">
         <x:v>63</x:v>
@@ -8066,30 +8063,30 @@
         <x:v>44799</x:v>
       </x:c>
       <x:c r="AP47" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="AR47" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AS47" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="AT47" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:46">
       <x:c r="A48" s="0" t="s">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
         <x:v>349</x:v>
       </x:c>
-      <x:c r="B48" s="0" t="s">
-        <x:v>343</x:v>
-      </x:c>
-      <x:c r="C48" s="0" t="s">
+      <x:c r="D48" s="0" t="s">
         <x:v>350</x:v>
-      </x:c>
-      <x:c r="D48" s="0" t="s">
-        <x:v>351</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>49</x:v>
@@ -8134,10 +8131,10 @@
         <x:v>5.5</x:v>
       </x:c>
       <x:c r="S48" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T48" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T48" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U48" s="0" t="s">
         <x:v>72</x:v>
@@ -8152,7 +8149,7 @@
         <x:v>748</x:v>
       </x:c>
       <x:c r="Z48" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="AA48" s="0" t="s">
         <x:v>252</x:v>
@@ -8176,16 +8173,16 @@
         <x:v>235.84</x:v>
       </x:c>
       <x:c r="AI48" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ48" s="0" t="n">
         <x:v>7010035083</x:v>
       </x:c>
       <x:c r="AK48" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL48" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AM48" s="0" t="n">
         <x:v>0</x:v>
@@ -8197,30 +8194,30 @@
         <x:v>44799</x:v>
       </x:c>
       <x:c r="AP48" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="AR48" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AS48" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="AT48" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:46">
       <x:c r="A49" s="0" t="s">
+        <x:v>353</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
         <x:v>354</x:v>
       </x:c>
-      <x:c r="B49" s="0" t="s">
-        <x:v>343</x:v>
-      </x:c>
-      <x:c r="C49" s="0" t="s">
+      <x:c r="D49" s="0" t="s">
         <x:v>355</x:v>
-      </x:c>
-      <x:c r="D49" s="0" t="s">
-        <x:v>356</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
         <x:v>49</x:v>
@@ -8265,10 +8262,10 @@
         <x:v>1.5</x:v>
       </x:c>
       <x:c r="S49" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T49" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T49" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U49" s="0" t="s">
         <x:v>72</x:v>
@@ -8283,7 +8280,7 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="Z49" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="AA49" s="0" t="s">
         <x:v>252</x:v>
@@ -8304,22 +8301,22 @@
         <x:v>0.321235</x:v>
       </x:c>
       <x:c r="AG49" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="AH49" s="0" t="n">
         <x:v>178.86</x:v>
       </x:c>
       <x:c r="AI49" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ49" s="0" t="n">
         <x:v>7010036040</x:v>
       </x:c>
       <x:c r="AK49" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL49" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AM49" s="0" t="n">
         <x:v>0</x:v>
@@ -8331,30 +8328,30 @@
         <x:v>44799</x:v>
       </x:c>
       <x:c r="AP49" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="AR49" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AS49" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="AT49" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:46">
       <x:c r="A50" s="0" t="s">
+        <x:v>359</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
         <x:v>360</x:v>
       </x:c>
-      <x:c r="B50" s="0" t="s">
-        <x:v>343</x:v>
-      </x:c>
-      <x:c r="C50" s="0" t="s">
+      <x:c r="D50" s="0" t="s">
         <x:v>361</x:v>
-      </x:c>
-      <x:c r="D50" s="0" t="s">
-        <x:v>362</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
         <x:v>49</x:v>
@@ -8399,10 +8396,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="S50" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T50" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T50" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U50" s="0" t="s">
         <x:v>72</x:v>
@@ -8417,7 +8414,7 @@
         <x:v>544</x:v>
       </x:c>
       <x:c r="Z50" s="0" t="s">
-        <x:v>363</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="AA50" s="0" t="s">
         <x:v>252</x:v>
@@ -8438,22 +8435,22 @@
         <x:v>0.321235</x:v>
       </x:c>
       <x:c r="AG50" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="AH50" s="0" t="n">
         <x:v>182.35</x:v>
       </x:c>
       <x:c r="AI50" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ50" s="0" t="n">
         <x:v>7010036073</x:v>
       </x:c>
       <x:c r="AK50" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL50" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AM50" s="0" t="n">
         <x:v>0</x:v>
@@ -8465,30 +8462,30 @@
         <x:v>44799</x:v>
       </x:c>
       <x:c r="AP50" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="AR50" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AS50" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="AT50" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:46">
       <x:c r="A51" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
         <x:v>365</x:v>
       </x:c>
-      <x:c r="B51" s="0" t="s">
-        <x:v>343</x:v>
-      </x:c>
-      <x:c r="C51" s="0" t="s">
+      <x:c r="D51" s="0" t="s">
         <x:v>366</x:v>
-      </x:c>
-      <x:c r="D51" s="0" t="s">
-        <x:v>367</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
         <x:v>49</x:v>
@@ -8533,10 +8530,10 @@
         <x:v>1.5</x:v>
       </x:c>
       <x:c r="S51" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T51" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T51" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U51" s="0" t="s">
         <x:v>72</x:v>
@@ -8551,7 +8548,7 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="Z51" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="AA51" s="0" t="s">
         <x:v>252</x:v>
@@ -8575,16 +8572,16 @@
         <x:v>230.26</x:v>
       </x:c>
       <x:c r="AI51" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ51" s="0" t="n">
         <x:v>7010035086</x:v>
       </x:c>
       <x:c r="AK51" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL51" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AM51" s="0" t="n">
         <x:v>0</x:v>
@@ -8596,30 +8593,30 @@
         <x:v>44799</x:v>
       </x:c>
       <x:c r="AP51" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="AR51" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AS51" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="AT51" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:46">
       <x:c r="A52" s="0" t="s">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
         <x:v>370</x:v>
       </x:c>
-      <x:c r="B52" s="0" t="s">
-        <x:v>343</x:v>
-      </x:c>
-      <x:c r="C52" s="0" t="s">
+      <x:c r="D52" s="0" t="s">
         <x:v>371</x:v>
-      </x:c>
-      <x:c r="D52" s="0" t="s">
-        <x:v>372</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
         <x:v>49</x:v>
@@ -8664,10 +8661,10 @@
         <x:v>1.5</x:v>
       </x:c>
       <x:c r="S52" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T52" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T52" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U52" s="0" t="s">
         <x:v>72</x:v>
@@ -8682,7 +8679,7 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="Z52" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="AA52" s="0" t="s">
         <x:v>252</x:v>
@@ -8703,22 +8700,22 @@
         <x:v>0.321235</x:v>
       </x:c>
       <x:c r="AG52" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="AH52" s="0" t="n">
         <x:v>178.86</x:v>
       </x:c>
       <x:c r="AI52" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ52" s="0" t="n">
         <x:v>7010035515</x:v>
       </x:c>
       <x:c r="AK52" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL52" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AM52" s="0" t="n">
         <x:v>0</x:v>
@@ -8730,30 +8727,30 @@
         <x:v>44799</x:v>
       </x:c>
       <x:c r="AP52" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="AR52" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="AS52" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="AS52" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="AT52" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:46">
       <x:c r="A53" s="0" t="s">
+        <x:v>373</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
         <x:v>374</x:v>
       </x:c>
-      <x:c r="B53" s="0" t="s">
-        <x:v>343</x:v>
-      </x:c>
-      <x:c r="C53" s="0" t="s">
+      <x:c r="D53" s="0" t="s">
         <x:v>375</x:v>
-      </x:c>
-      <x:c r="D53" s="0" t="s">
-        <x:v>376</x:v>
       </x:c>
       <x:c r="E53" s="0" t="s">
         <x:v>49</x:v>
@@ -8798,10 +8795,10 @@
         <x:v>2.5</x:v>
       </x:c>
       <x:c r="S53" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T53" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T53" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U53" s="0" t="s">
         <x:v>72</x:v>
@@ -8816,7 +8813,7 @@
         <x:v>340</x:v>
       </x:c>
       <x:c r="Z53" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="AA53" s="0" t="s">
         <x:v>252</x:v>
@@ -8840,16 +8837,16 @@
         <x:v>231.65</x:v>
       </x:c>
       <x:c r="AI53" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ53" s="0" t="n">
         <x:v>7010035516</x:v>
       </x:c>
       <x:c r="AK53" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL53" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AM53" s="0" t="n">
         <x:v>0</x:v>
@@ -8861,30 +8858,30 @@
         <x:v>44799</x:v>
       </x:c>
       <x:c r="AP53" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="AR53" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AS53" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="AT53" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:46">
       <x:c r="A54" s="0" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
         <x:v>380</x:v>
       </x:c>
-      <x:c r="B54" s="0" t="s">
+      <x:c r="D54" s="0" t="s">
         <x:v>381</x:v>
-      </x:c>
-      <x:c r="C54" s="0" t="s">
-        <x:v>382</x:v>
-      </x:c>
-      <x:c r="D54" s="0" t="s">
-        <x:v>383</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
         <x:v>49</x:v>
@@ -8911,7 +8908,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="M54" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="N54" s="1">
         <x:v>44797</x:v>
@@ -8929,10 +8926,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="S54" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T54" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T54" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U54" s="0" t="s">
         <x:v>72</x:v>
@@ -8947,7 +8944,7 @@
         <x:v>544</x:v>
       </x:c>
       <x:c r="Z54" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="AA54" s="0" t="s">
         <x:v>252</x:v>
@@ -8971,16 +8968,16 @@
         <x:v>233.75</x:v>
       </x:c>
       <x:c r="AI54" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ54" s="0" t="n">
         <x:v>7010035630</x:v>
       </x:c>
       <x:c r="AK54" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL54" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AM54" s="0" t="n">
         <x:v>0</x:v>
@@ -8992,30 +8989,30 @@
         <x:v>44800</x:v>
       </x:c>
       <x:c r="AP54" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="AR54" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AS54" s="0" t="s">
-        <x:v>386</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="AT54" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>385</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:46">
       <x:c r="A55" s="0" t="s">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
         <x:v>387</x:v>
       </x:c>
-      <x:c r="B55" s="0" t="s">
-        <x:v>381</x:v>
-      </x:c>
-      <x:c r="C55" s="0" t="s">
+      <x:c r="D55" s="0" t="s">
         <x:v>388</x:v>
-      </x:c>
-      <x:c r="D55" s="0" t="s">
-        <x:v>389</x:v>
       </x:c>
       <x:c r="E55" s="0" t="s">
         <x:v>49</x:v>
@@ -9042,7 +9039,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="M55" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="N55" s="1">
         <x:v>44797</x:v>
@@ -9060,10 +9057,10 @@
         <x:v>2.5</x:v>
       </x:c>
       <x:c r="S55" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T55" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T55" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U55" s="0" t="s">
         <x:v>72</x:v>
@@ -9078,7 +9075,7 @@
         <x:v>340</x:v>
       </x:c>
       <x:c r="Z55" s="0" t="s">
-        <x:v>390</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="AA55" s="0" t="s">
         <x:v>252</x:v>
@@ -9099,22 +9096,22 @@
         <x:v>0.321235</x:v>
       </x:c>
       <x:c r="AG55" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="AH55" s="0" t="n">
         <x:v>180.25</x:v>
       </x:c>
       <x:c r="AI55" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ55" s="0" t="n">
         <x:v>7010036081</x:v>
       </x:c>
       <x:c r="AK55" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL55" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AM55" s="0" t="n">
         <x:v>0</x:v>
@@ -9126,30 +9123,30 @@
         <x:v>44800</x:v>
       </x:c>
       <x:c r="AP55" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="AR55" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AS55" s="0" t="s">
-        <x:v>392</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="AT55" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>385</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:46">
       <x:c r="A56" s="0" t="s">
+        <x:v>392</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
         <x:v>393</x:v>
       </x:c>
-      <x:c r="B56" s="0" t="s">
+      <x:c r="C56" s="0" t="s">
         <x:v>394</x:v>
       </x:c>
-      <x:c r="C56" s="0" t="s">
+      <x:c r="D56" s="0" t="s">
         <x:v>395</x:v>
-      </x:c>
-      <x:c r="D56" s="0" t="s">
-        <x:v>396</x:v>
       </x:c>
       <x:c r="E56" s="0" t="s">
         <x:v>49</x:v>
@@ -9194,10 +9191,10 @@
         <x:v>6.5</x:v>
       </x:c>
       <x:c r="S56" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T56" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T56" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="V56" s="0" t="n">
         <x:v>220</x:v>
@@ -9209,7 +9206,7 @@
         <x:v>884</x:v>
       </x:c>
       <x:c r="Z56" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AA56" s="0" t="s">
         <x:v>252</x:v>
@@ -9230,57 +9227,57 @@
         <x:v>0.321235</x:v>
       </x:c>
       <x:c r="AG56" s="0" t="s">
-        <x:v>398</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="AH56" s="0" t="n">
         <x:v>113.32</x:v>
       </x:c>
       <x:c r="AI56" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="AJ56" s="0" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="AK56" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="AL56" s="0" t="s">
         <x:v>121</x:v>
-      </x:c>
-      <x:c r="AJ56" s="0" t="s">
-        <x:v>399</x:v>
-      </x:c>
-      <x:c r="AK56" s="0" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="AL56" s="0" t="s">
-        <x:v>122</x:v>
       </x:c>
       <x:c r="AM56" s="0" t="n">
         <x:v>-2146826246</x:v>
       </x:c>
       <x:c r="AN56" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="AO56" s="1">
         <x:v>44800</x:v>
       </x:c>
       <x:c r="AP56" s="0" t="s">
-        <x:v>400</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="AR56" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="AS56" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="AS56" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="AT56" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>385</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:46">
       <x:c r="A57" s="0" t="s">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
         <x:v>401</x:v>
       </x:c>
-      <x:c r="B57" s="0" t="s">
-        <x:v>394</x:v>
-      </x:c>
-      <x:c r="C57" s="0" t="s">
+      <x:c r="D57" s="0" t="s">
         <x:v>402</x:v>
-      </x:c>
-      <x:c r="D57" s="0" t="s">
-        <x:v>403</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
         <x:v>49</x:v>
@@ -9370,48 +9367,48 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="AJ57" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="AK57" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
       <x:c r="AL57" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AM57" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
       <x:c r="AN57" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="AO57" s="1">
         <x:v>44800</x:v>
       </x:c>
       <x:c r="AP57" s="0" t="s">
-        <x:v>400</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="AR57" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AS57" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="AT57" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>385</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:46">
       <x:c r="A58" s="0" t="s">
+        <x:v>405</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
         <x:v>406</x:v>
       </x:c>
-      <x:c r="B58" s="0" t="s">
+      <x:c r="C58" s="0" t="s">
         <x:v>407</x:v>
       </x:c>
-      <x:c r="C58" s="0" t="s">
+      <x:c r="D58" s="0" t="s">
         <x:v>408</x:v>
-      </x:c>
-      <x:c r="D58" s="0" t="s">
-        <x:v>409</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
         <x:v>49</x:v>
@@ -9438,7 +9435,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="M58" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="N58" s="1">
         <x:v>44798</x:v>
@@ -9456,10 +9453,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="S58" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T58" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T58" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U58" s="0" t="s">
         <x:v>72</x:v>
@@ -9474,7 +9471,7 @@
         <x:v>4080</x:v>
       </x:c>
       <x:c r="Z58" s="0" t="s">
-        <x:v>410</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="AA58" s="0" t="s">
         <x:v>252</x:v>
@@ -9495,22 +9492,22 @@
         <x:v>0.321235</x:v>
       </x:c>
       <x:c r="AG58" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="AH58" s="0" t="n">
         <x:v>537.57</x:v>
       </x:c>
       <x:c r="AI58" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ58" s="0" t="n">
         <x:v>7010036082</x:v>
       </x:c>
       <x:c r="AK58" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL58" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AM58" s="0" t="n">
         <x:v>0</x:v>
@@ -9522,30 +9519,30 @@
         <x:v>44800</x:v>
       </x:c>
       <x:c r="AP58" s="0" t="s">
-        <x:v>400</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="AR58" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AS58" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="AT58" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>385</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:46">
       <x:c r="A59" s="0" t="s">
+        <x:v>411</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
         <x:v>412</x:v>
       </x:c>
-      <x:c r="B59" s="0" t="s">
+      <x:c r="C59" s="0" t="s">
         <x:v>413</x:v>
       </x:c>
-      <x:c r="C59" s="0" t="s">
+      <x:c r="D59" s="0" t="s">
         <x:v>414</x:v>
-      </x:c>
-      <x:c r="D59" s="0" t="s">
-        <x:v>415</x:v>
       </x:c>
       <x:c r="E59" s="0" t="s">
         <x:v>49</x:v>
@@ -9590,10 +9587,10 @@
         <x:v>18.5</x:v>
       </x:c>
       <x:c r="S59" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T59" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T59" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U59" s="0" t="s">
         <x:v>72</x:v>
@@ -9608,7 +9605,7 @@
         <x:v>2516</x:v>
       </x:c>
       <x:c r="Z59" s="0" t="s">
-        <x:v>416</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="AA59" s="0" t="s">
         <x:v>252</x:v>
@@ -9632,16 +9629,16 @@
         <x:v>417.25</x:v>
       </x:c>
       <x:c r="AI59" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="AJ59" s="0" t="s">
+        <x:v>416</x:v>
+      </x:c>
+      <x:c r="AK59" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="AL59" s="0" t="s">
         <x:v>121</x:v>
-      </x:c>
-      <x:c r="AJ59" s="0" t="s">
-        <x:v>417</x:v>
-      </x:c>
-      <x:c r="AK59" s="0" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="AL59" s="0" t="s">
-        <x:v>122</x:v>
       </x:c>
       <x:c r="AM59" s="0" t="n">
         <x:v>-2146826246</x:v>
@@ -9653,30 +9650,30 @@
         <x:v>44803</x:v>
       </x:c>
       <x:c r="AP59" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="AR59" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AS59" s="0" t="s">
-        <x:v>419</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="AT59" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>385</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:46">
       <x:c r="A60" s="0" t="s">
+        <x:v>419</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
         <x:v>420</x:v>
       </x:c>
-      <x:c r="B60" s="0" t="s">
+      <x:c r="C60" s="0" t="s">
         <x:v>421</x:v>
       </x:c>
-      <x:c r="C60" s="0" t="s">
+      <x:c r="D60" s="0" t="s">
         <x:v>422</x:v>
-      </x:c>
-      <x:c r="D60" s="0" t="s">
-        <x:v>423</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
         <x:v>49</x:v>
@@ -9721,10 +9718,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="S60" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T60" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T60" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="U60" s="0" t="s">
         <x:v>72</x:v>
@@ -9739,7 +9736,7 @@
         <x:v>2176</x:v>
       </x:c>
       <x:c r="Z60" s="0" t="s">
-        <x:v>424</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="AA60" s="0" t="s">
         <x:v>252</x:v>
@@ -9760,22 +9757,22 @@
         <x:v>0.321235</x:v>
       </x:c>
       <x:c r="AG60" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="AH60" s="0" t="n">
         <x:v>328.51</x:v>
       </x:c>
       <x:c r="AI60" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ60" s="0" t="n">
         <x:v>7010035251</x:v>
       </x:c>
       <x:c r="AK60" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="AL60" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AM60" s="0" t="n">
         <x:v>0</x:v>
@@ -9787,30 +9784,30 @@
         <x:v>44803</x:v>
       </x:c>
       <x:c r="AP60" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="AR60" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AS60" s="0" t="s">
-        <x:v>426</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="AT60" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>385</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:46">
       <x:c r="A61" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
+        <x:v>426</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
         <x:v>427</x:v>
       </x:c>
-      <x:c r="C61" s="0" t="s">
+      <x:c r="D61" s="0" t="s">
         <x:v>428</x:v>
-      </x:c>
-      <x:c r="D61" s="0" t="s">
-        <x:v>429</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
         <x:v>49</x:v>
@@ -9903,13 +9900,13 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="AJ61" s="0" t="s">
-        <x:v>430</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="AK61" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
       <x:c r="AL61" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AM61" s="0" t="s">
         <x:v>63</x:v>
@@ -9921,16 +9918,16 @@
         <x:v>44806</x:v>
       </x:c>
       <x:c r="AP61" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="AR61" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AS61" s="0" t="s">
-        <x:v>432</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="AT61" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>385</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -10027,7 +10024,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="Y1" s="0" t="s">
-        <x:v>434</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="Z1" s="0" t="s">
         <x:v>29</x:v>
@@ -10065,13 +10062,13 @@
     </x:row>
     <x:row r="2" spans="1:36">
       <x:c r="A2" s="0" t="s">
+        <x:v>433</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>434</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
         <x:v>435</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>436</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>437</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>49</x:v>
@@ -10080,7 +10077,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
         <x:v>52</x:v>
@@ -10092,16 +10089,16 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="K2" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="M2" s="0" t="s">
-        <x:v>440</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="N2" s="0" t="n">
         <x:v>2</x:v>
@@ -10113,10 +10110,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="Q2" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="R2" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="R2" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="S2" s="0" t="n">
         <x:v>183</x:v>
@@ -10143,39 +10140,39 @@
         <x:v>243.11</x:v>
       </x:c>
       <x:c r="AC2" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="AD2" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AE2" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="AF2" s="1">
         <x:v>44778</x:v>
       </x:c>
       <x:c r="AG2" s="0" t="s">
-        <x:v>442</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="AH2" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AI2" s="0" t="s">
-        <x:v>443</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="AJ2" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>385</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:36">
       <x:c r="A3" s="0" t="s">
+        <x:v>433</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>434</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
         <x:v>435</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>436</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>437</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>49</x:v>
@@ -10184,7 +10181,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
         <x:v>52</x:v>
@@ -10196,16 +10193,16 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="L3" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="M3" s="0" t="s">
-        <x:v>440</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>2</x:v>
@@ -10217,10 +10214,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="Q3" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="R3" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="R3" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="S3" s="0" t="n">
         <x:v>0</x:v>
@@ -10235,7 +10232,7 @@
         <x:v>58001142928300</x:v>
       </x:c>
       <x:c r="W3" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="X3" s="0" t="n">
         <x:v>0</x:v>
@@ -10253,21 +10250,21 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="AI3" s="0" t="s">
-        <x:v>444</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="AJ3" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>385</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:36">
       <x:c r="A4" s="0" t="s">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>444</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
         <x:v>445</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>446</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>447</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>49</x:v>
@@ -10276,7 +10273,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
         <x:v>52</x:v>
@@ -10288,16 +10285,16 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="J4" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="K4" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="L4" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="M4" s="0" t="s">
-        <x:v>449</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="N4" s="0" t="n">
         <x:v>2</x:v>
@@ -10309,10 +10306,10 @@
         <x:v>2.5</x:v>
       </x:c>
       <x:c r="Q4" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="R4" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="R4" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="S4" s="0" t="n">
         <x:v>183</x:v>
@@ -10339,39 +10336,39 @@
         <x:v>239.83</x:v>
       </x:c>
       <x:c r="AC4" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="AD4" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AE4" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="AF4" s="1">
         <x:v>44779</x:v>
       </x:c>
       <x:c r="AG4" s="0" t="s">
-        <x:v>451</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="AH4" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AI4" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="AJ4" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>385</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:36">
       <x:c r="A5" s="0" t="s">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>444</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
         <x:v>445</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>446</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>447</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>49</x:v>
@@ -10380,7 +10377,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
         <x:v>52</x:v>
@@ -10392,16 +10389,16 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="J5" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="K5" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="L5" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="M5" s="0" t="s">
-        <x:v>449</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="N5" s="0" t="n">
         <x:v>2</x:v>
@@ -10413,10 +10410,10 @@
         <x:v>2.5</x:v>
       </x:c>
       <x:c r="Q5" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="R5" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="R5" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="S5" s="0" t="n">
         <x:v>0</x:v>
@@ -10431,7 +10428,7 @@
         <x:v>58001142928800</x:v>
       </x:c>
       <x:c r="W5" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="X5" s="0" t="n">
         <x:v>0</x:v>
@@ -10446,24 +10443,24 @@
         <x:v>110.42</x:v>
       </x:c>
       <x:c r="AH5" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="AI5" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="AI5" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="AJ5" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>385</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:36">
       <x:c r="A6" s="0" t="s">
+        <x:v>451</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>452</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
         <x:v>453</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>454</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>455</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>49</x:v>
@@ -10472,7 +10469,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
         <x:v>52</x:v>
@@ -10484,16 +10481,16 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="J6" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="K6" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="L6" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="M6" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="N6" s="0" t="n">
         <x:v>1</x:v>
@@ -10505,10 +10502,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="Q6" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="R6" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="R6" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="S6" s="0" t="n">
         <x:v>183</x:v>
@@ -10535,39 +10532,39 @@
         <x:v>240.19</x:v>
       </x:c>
       <x:c r="AC6" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="AD6" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AE6" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="AF6" s="1">
         <x:v>44788</x:v>
       </x:c>
       <x:c r="AG6" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="AH6" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AI6" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="AJ6" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>459</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:36">
       <x:c r="A7" s="0" t="s">
+        <x:v>451</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>452</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
         <x:v>453</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>454</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>455</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>49</x:v>
@@ -10576,7 +10573,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
         <x:v>52</x:v>
@@ -10588,16 +10585,16 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="J7" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="K7" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="L7" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="M7" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="N7" s="0" t="n">
         <x:v>1</x:v>
@@ -10609,10 +10606,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="Q7" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="R7" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="R7" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="S7" s="0" t="n">
         <x:v>0</x:v>
@@ -10627,7 +10624,7 @@
         <x:v>58001142927600</x:v>
       </x:c>
       <x:c r="W7" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="X7" s="0" t="n">
         <x:v>0</x:v>
@@ -10642,27 +10639,27 @@
         <x:v>59.28</x:v>
       </x:c>
       <x:c r="AB7" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="AH7" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AI7" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="AJ7" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>459</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:36">
       <x:c r="A8" s="0" t="s">
+        <x:v>462</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>452</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
         <x:v>463</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>454</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>464</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>49</x:v>
@@ -10671,7 +10668,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
         <x:v>52</x:v>
@@ -10683,16 +10680,16 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="J8" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="K8" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="L8" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="M8" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="N8" s="0" t="n">
         <x:v>1</x:v>
@@ -10704,10 +10701,10 @@
         <x:v>1.5</x:v>
       </x:c>
       <x:c r="Q8" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="R8" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="R8" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="S8" s="0" t="n">
         <x:v>183</x:v>
@@ -10734,39 +10731,39 @@
         <x:v>239.1</x:v>
       </x:c>
       <x:c r="AC8" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="AD8" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AE8" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="AF8" s="1">
         <x:v>44788</x:v>
       </x:c>
       <x:c r="AG8" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="AH8" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AI8" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="AJ8" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>459</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:36">
       <x:c r="A9" s="0" t="s">
+        <x:v>462</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>452</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
         <x:v>463</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>454</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>464</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>49</x:v>
@@ -10775,7 +10772,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
         <x:v>52</x:v>
@@ -10787,16 +10784,16 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="J9" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="K9" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="L9" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="M9" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="N9" s="0" t="n">
         <x:v>1</x:v>
@@ -10808,10 +10805,10 @@
         <x:v>1.5</x:v>
       </x:c>
       <x:c r="Q9" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="R9" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="R9" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="S9" s="0" t="n">
         <x:v>0</x:v>
@@ -10826,7 +10823,7 @@
         <x:v>58001142927900</x:v>
       </x:c>
       <x:c r="W9" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="X9" s="0" t="n">
         <x:v>0</x:v>
@@ -10841,27 +10838,27 @@
         <x:v>59.28</x:v>
       </x:c>
       <x:c r="AB9" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="AH9" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AI9" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="AJ9" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>459</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:36">
       <x:c r="A10" s="0" t="s">
+        <x:v>467</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>468</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
         <x:v>469</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>470</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>471</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>49</x:v>
@@ -10870,7 +10867,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
         <x:v>52</x:v>
@@ -10882,16 +10879,16 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="J10" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="K10" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="L10" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="M10" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="N10" s="0" t="n">
         <x:v>1</x:v>
@@ -10903,10 +10900,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="Q10" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="R10" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="R10" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="S10" s="0" t="n">
         <x:v>183</x:v>
@@ -10933,39 +10930,39 @@
         <x:v>240.19</x:v>
       </x:c>
       <x:c r="AC10" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="AD10" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AE10" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="AF10" s="1">
         <x:v>44796</x:v>
       </x:c>
       <x:c r="AG10" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="AH10" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AI10" s="0" t="s">
-        <x:v>476</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="AJ10" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>459</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:36">
       <x:c r="A11" s="0" t="s">
+        <x:v>467</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>468</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
         <x:v>469</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>470</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>471</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
         <x:v>49</x:v>
@@ -10974,7 +10971,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
         <x:v>52</x:v>
@@ -10986,16 +10983,16 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="J11" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="K11" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="L11" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="M11" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="N11" s="0" t="n">
         <x:v>1</x:v>
@@ -11007,10 +11004,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="Q11" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="R11" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="R11" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="S11" s="0" t="n">
         <x:v>183</x:v>
@@ -11040,27 +11037,27 @@
         <x:v>59.59</x:v>
       </x:c>
       <x:c r="AB11" s="0" t="s">
-        <x:v>477</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="AH11" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AI11" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="AJ11" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>459</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:36">
       <x:c r="A12" s="0" t="s">
+        <x:v>477</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>478</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
         <x:v>479</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>480</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>481</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>49</x:v>
@@ -11069,7 +11066,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
         <x:v>52</x:v>
@@ -11081,16 +11078,16 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="J12" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="K12" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="L12" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="M12" s="0" t="s">
-        <x:v>483</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="N12" s="0" t="n">
         <x:v>1</x:v>
@@ -11102,10 +11099,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="Q12" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="R12" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="R12" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="S12" s="0" t="n">
         <x:v>183</x:v>
@@ -11132,39 +11129,39 @@
         <x:v>244.57</x:v>
       </x:c>
       <x:c r="AC12" s="0" t="s">
-        <x:v>484</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="AD12" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AE12" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="AF12" s="1">
         <x:v>44791</x:v>
       </x:c>
       <x:c r="AG12" s="0" t="s">
-        <x:v>485</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="AH12" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AI12" s="0" t="s">
-        <x:v>486</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="AJ12" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>459</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:36">
       <x:c r="A13" s="0" t="s">
+        <x:v>477</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>478</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
         <x:v>479</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>480</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>481</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>49</x:v>
@@ -11173,7 +11170,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
         <x:v>52</x:v>
@@ -11185,16 +11182,16 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="J13" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="K13" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="L13" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="M13" s="0" t="s">
-        <x:v>483</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="N13" s="0" t="n">
         <x:v>1</x:v>
@@ -11206,10 +11203,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="Q13" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="R13" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="R13" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="S13" s="0" t="n">
         <x:v>183</x:v>
@@ -11242,10 +11239,10 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="AI13" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="AJ13" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>459</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -11404,13 +11401,13 @@
         <x:v>341110548774</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>488</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>1000015857</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>489</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>49</x:v>
@@ -11419,7 +11416,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
         <x:v>52</x:v>
@@ -11431,13 +11428,13 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="K2" s="0" t="s">
-        <x:v>490</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="M2" s="0" t="s">
-        <x:v>491</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="N2" s="1">
         <x:v>44795</x:v>
@@ -11455,10 +11452,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="S2" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T2" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T2" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="V2" s="0" t="n">
         <x:v>21.45</x:v>
@@ -11473,7 +11470,7 @@
         <x:v>23.75</x:v>
       </x:c>
       <x:c r="Z2" s="0" t="s">
-        <x:v>492</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="AA2" s="0" t="s">
         <x:v>252</x:v>
@@ -11488,19 +11485,19 @@
         <x:v>0.321235</x:v>
       </x:c>
       <x:c r="AG2" s="0" t="s">
-        <x:v>493</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="AH2" s="0" t="n">
         <x:v>774.45</x:v>
       </x:c>
       <x:c r="AI2" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ2" s="0" t="n">
         <x:v>7010035984</x:v>
       </x:c>
       <x:c r="AK2" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AL2" s="0" t="s">
         <x:v>72</x:v>
@@ -11509,16 +11506,16 @@
         <x:v>44799</x:v>
       </x:c>
       <x:c r="AN2" s="0" t="s">
-        <x:v>494</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="AO2" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AP2" s="0" t="s">
-        <x:v>495</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="AQ2" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>459</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:43">
@@ -11526,13 +11523,13 @@
         <x:v>341110548973</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>496</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
         <x:v>1000015888</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>497</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>49</x:v>
@@ -11541,7 +11538,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
         <x:v>52</x:v>
@@ -11553,13 +11550,13 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
-        <x:v>490</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="L3" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="M3" s="0" t="s">
-        <x:v>491</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="N3" s="1">
         <x:v>44799</x:v>
@@ -11577,10 +11574,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="S3" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="T3" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="T3" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="V3" s="0" t="n">
         <x:v>275</x:v>
@@ -11595,7 +11592,7 @@
         <x:v>3.75</x:v>
       </x:c>
       <x:c r="Z3" s="0" t="s">
-        <x:v>498</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="AA3" s="0" t="s">
         <x:v>252</x:v>
@@ -11613,13 +11610,13 @@
         <x:v>570.47</x:v>
       </x:c>
       <x:c r="AI3" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="AJ3" s="0" t="n">
         <x:v>7010036284</x:v>
       </x:c>
       <x:c r="AK3" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="AL3" s="0" t="s">
         <x:v>72</x:v>
@@ -11628,16 +11625,16 @@
         <x:v>44804</x:v>
       </x:c>
       <x:c r="AN3" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="AO3" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="AP3" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="AQ3" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>499</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
